--- a/us-election-2016.xlsx
+++ b/us-election-2016.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="580">
   <si>
     <t>Trump</t>
   </si>
@@ -1618,9 +1618,6 @@
   </si>
   <si>
     <t>D. C.</t>
-  </si>
-  <si>
-    <t> 0</t>
   </si>
   <si>
     <t>Total Votes</t>
@@ -1780,17 +1777,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1801,6 +1791,21 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1823,11 +1828,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink Visitado" xfId="1" builtinId="9" hidden="1"/>
@@ -2109,38 +2117,41 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2169,8 +2180,8 @@
       <c r="H2">
         <v>44211</v>
       </c>
-      <c r="I2" t="s">
-        <v>535</v>
+      <c r="I2" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2199,8 +2210,8 @@
       <c r="H3">
         <v>18782</v>
       </c>
-      <c r="I3" t="s">
-        <v>536</v>
+      <c r="I3" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2229,8 +2240,8 @@
       <c r="H4">
         <v>106327</v>
       </c>
-      <c r="I4" t="s">
-        <v>537</v>
+      <c r="I4" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2259,8 +2270,8 @@
       <c r="H5">
         <v>29829</v>
       </c>
-      <c r="I5" t="s">
-        <v>538</v>
+      <c r="I5" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2289,8 +2300,8 @@
       <c r="H6">
         <v>452704</v>
       </c>
-      <c r="I6" t="s">
-        <v>532</v>
+      <c r="I6" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2318,8 +2329,8 @@
       <c r="H7">
         <v>144121</v>
       </c>
-      <c r="I7" t="s">
-        <v>533</v>
+      <c r="I7" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2348,8 +2359,8 @@
       <c r="H8">
         <v>4865</v>
       </c>
-      <c r="I8" t="s">
-        <v>534</v>
+      <c r="I8" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2378,8 +2389,8 @@
       <c r="H9">
         <v>14757</v>
       </c>
-      <c r="I9" t="s">
-        <v>539</v>
+      <c r="I9" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2408,8 +2419,8 @@
       <c r="H10">
         <v>4906</v>
       </c>
-      <c r="I10" t="s">
-        <v>540</v>
+      <c r="I10" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2438,8 +2449,8 @@
       <c r="H11">
         <v>207043</v>
       </c>
-      <c r="I11" t="s">
-        <v>541</v>
+      <c r="I11" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2468,8 +2479,8 @@
       <c r="H12">
         <v>125306</v>
       </c>
-      <c r="I12" t="s">
-        <v>529</v>
+      <c r="I12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2498,8 +2509,8 @@
       <c r="H13">
         <v>15954</v>
       </c>
-      <c r="I13" t="s">
-        <v>542</v>
+      <c r="I13" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,8 +2539,8 @@
       <c r="H14">
         <v>28331</v>
       </c>
-      <c r="I14" t="s">
-        <v>543</v>
+      <c r="I14" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2558,8 +2569,8 @@
       <c r="H15">
         <v>208682</v>
       </c>
-      <c r="I15" t="s">
-        <v>544</v>
+      <c r="I15" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2588,8 +2599,8 @@
       <c r="H16">
         <v>133994</v>
       </c>
-      <c r="I16" t="s">
-        <v>545</v>
+      <c r="I16" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2618,8 +2629,8 @@
       <c r="H17">
         <v>59186</v>
       </c>
-      <c r="I17" t="s">
-        <v>546</v>
+      <c r="I17" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2648,8 +2659,8 @@
       <c r="H18">
         <v>53648</v>
       </c>
-      <c r="I18" t="s">
-        <v>547</v>
+      <c r="I18" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2678,8 +2689,8 @@
       <c r="H19">
         <v>53752</v>
       </c>
-      <c r="I19" t="s">
-        <v>548</v>
+      <c r="I19" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2708,8 +2719,8 @@
       <c r="H20">
         <v>37978</v>
       </c>
-      <c r="I20" t="s">
-        <v>549</v>
+      <c r="I20" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2738,8 +2749,8 @@
       <c r="H21">
         <v>37578</v>
       </c>
-      <c r="I21" t="s">
-        <v>550</v>
+      <c r="I21" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,8 +2779,8 @@
       <c r="H22">
         <v>78225</v>
       </c>
-      <c r="I22" t="s">
-        <v>551</v>
+      <c r="I22" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2798,8 +2809,8 @@
       <c r="H23">
         <v>136784</v>
       </c>
-      <c r="I23" t="s">
-        <v>552</v>
+      <c r="I23" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2828,8 +2839,8 @@
       <c r="H24">
         <v>172136</v>
       </c>
-      <c r="I24" t="s">
-        <v>553</v>
+      <c r="I24" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2858,8 +2869,8 @@
       <c r="H25">
         <v>112972</v>
       </c>
-      <c r="I25" t="s">
-        <v>554</v>
+      <c r="I25" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2888,8 +2899,8 @@
       <c r="H26">
         <v>14411</v>
       </c>
-      <c r="I26" t="s">
-        <v>555</v>
+      <c r="I26" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2918,8 +2929,8 @@
       <c r="H27">
         <v>96404</v>
       </c>
-      <c r="I27" t="s">
-        <v>556</v>
+      <c r="I27" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2948,8 +2959,8 @@
       <c r="H28">
         <v>28036</v>
       </c>
-      <c r="I28" t="s">
-        <v>557</v>
+      <c r="I28" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2978,8 +2989,8 @@
       <c r="H29">
         <v>38746</v>
       </c>
-      <c r="I29" t="s">
-        <v>558</v>
+      <c r="I29" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3008,8 +3019,8 @@
       <c r="H30">
         <v>37384</v>
       </c>
-      <c r="I30" t="s">
-        <v>559</v>
+      <c r="I30" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3038,8 +3049,8 @@
       <c r="H31">
         <v>30694</v>
       </c>
-      <c r="I31" t="s">
-        <v>560</v>
+      <c r="I31" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3068,8 +3079,8 @@
       <c r="H32">
         <v>72143</v>
       </c>
-      <c r="I32" t="s">
-        <v>561</v>
+      <c r="I32" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3098,8 +3109,8 @@
       <c r="H33">
         <v>74541</v>
       </c>
-      <c r="I33" t="s">
-        <v>562</v>
+      <c r="I33" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3128,8 +3139,8 @@
       <c r="H34">
         <v>162273</v>
       </c>
-      <c r="I34" t="s">
-        <v>563</v>
+      <c r="I34" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,8 +3169,8 @@
       <c r="H35">
         <v>130021</v>
       </c>
-      <c r="I35" t="s">
-        <v>564</v>
+      <c r="I35" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3188,8 +3199,8 @@
       <c r="H36">
         <v>21434</v>
       </c>
-      <c r="I36" t="s">
-        <v>565</v>
+      <c r="I36" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3218,8 +3229,8 @@
       <c r="H37">
         <v>174266</v>
       </c>
-      <c r="I37" t="s">
-        <v>566</v>
+      <c r="I37" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3248,8 +3259,8 @@
       <c r="H38">
         <v>83481</v>
       </c>
-      <c r="I38" t="s">
-        <v>529</v>
+      <c r="I38" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3278,8 +3289,8 @@
       <c r="H39">
         <v>96241</v>
       </c>
-      <c r="I39" t="s">
-        <v>567</v>
+      <c r="I39" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3308,8 +3319,8 @@
       <c r="H40">
         <v>145902</v>
       </c>
-      <c r="I40" t="s">
-        <v>568</v>
+      <c r="I40" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3338,8 +3349,8 @@
       <c r="H41">
         <v>14746</v>
       </c>
-      <c r="I41" t="s">
-        <v>569</v>
+      <c r="I41" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3368,8 +3379,8 @@
       <c r="H42">
         <v>49204</v>
       </c>
-      <c r="I42" t="s">
-        <v>570</v>
+      <c r="I42" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3398,8 +3409,8 @@
       <c r="H43">
         <v>20845</v>
       </c>
-      <c r="I43" t="s">
-        <v>571</v>
+      <c r="I43" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3428,8 +3439,8 @@
       <c r="H44">
         <v>70286</v>
       </c>
-      <c r="I44" t="s">
-        <v>572</v>
+      <c r="I44" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3458,8 +3469,8 @@
       <c r="H45">
         <v>282655</v>
       </c>
-      <c r="I45" t="s">
-        <v>573</v>
+      <c r="I45" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3488,8 +3499,8 @@
       <c r="H46">
         <v>39608</v>
       </c>
-      <c r="I46" t="s">
-        <v>574</v>
+      <c r="I46" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3518,8 +3529,8 @@
       <c r="H47">
         <v>10078</v>
       </c>
-      <c r="I47" t="s">
-        <v>575</v>
+      <c r="I47" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3548,8 +3559,8 @@
       <c r="H48">
         <v>118274</v>
       </c>
-      <c r="I48" t="s">
-        <v>576</v>
+      <c r="I48" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3578,8 +3589,8 @@
       <c r="H49">
         <v>160627</v>
       </c>
-      <c r="I49" t="s">
-        <v>577</v>
+      <c r="I49" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3608,8 +3619,8 @@
       <c r="H50">
         <v>22958</v>
       </c>
-      <c r="I50" t="s">
-        <v>578</v>
+      <c r="I50" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3638,8 +3649,8 @@
       <c r="H51">
         <v>10647</v>
       </c>
-      <c r="I51" t="s">
-        <v>579</v>
+      <c r="I51" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3668,8 +3679,8 @@
       <c r="H52">
         <v>13287</v>
       </c>
-      <c r="I52" t="s">
-        <v>580</v>
+      <c r="I52" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
